--- a/rsmsa/public/uploads/vehicle.xlsx
+++ b/rsmsa/public/uploads/vehicle.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="94">
   <si>
     <t>Registration Number</t>
   </si>
@@ -128,6 +128,9 @@
     <t>Jumanne Shabani</t>
   </si>
   <si>
+    <t>Local Government</t>
+  </si>
+  <si>
     <t>Box 343 Tanga</t>
   </si>
   <si>
@@ -138,6 +141,162 @@
   </si>
   <si>
     <t>Blue</t>
+  </si>
+  <si>
+    <t>T224 ACL</t>
+  </si>
+  <si>
+    <t>Ally  Yassin</t>
+  </si>
+  <si>
+    <t>Box 32 Iringa</t>
+  </si>
+  <si>
+    <t>Murrano</t>
+  </si>
+  <si>
+    <t>Black</t>
+  </si>
+  <si>
+    <t>Light Load Vehicle</t>
+  </si>
+  <si>
+    <t>FB150733324</t>
+  </si>
+  <si>
+    <t>Diesel</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>T324 CPU</t>
+  </si>
+  <si>
+    <t>Sarah maswaga</t>
+  </si>
+  <si>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>Box 453 Tanga</t>
+  </si>
+  <si>
+    <t>Green</t>
+  </si>
+  <si>
+    <t>FB150733325</t>
+  </si>
+  <si>
+    <t>T435 ACE</t>
+  </si>
+  <si>
+    <t>Lucy Gabriel</t>
+  </si>
+  <si>
+    <t>FB150733326</t>
+  </si>
+  <si>
+    <t>T342 BDE</t>
+  </si>
+  <si>
+    <t>Vicent Binde</t>
+  </si>
+  <si>
+    <t>Station Wagon</t>
+  </si>
+  <si>
+    <t>FB150733327</t>
+  </si>
+  <si>
+    <t>T765 CBR</t>
+  </si>
+  <si>
+    <t>Paul Nyairema</t>
+  </si>
+  <si>
+    <t>FB150733328</t>
+  </si>
+  <si>
+    <t>T675 BAC</t>
+  </si>
+  <si>
+    <t>Isaaya Paul</t>
+  </si>
+  <si>
+    <t>FB150733329</t>
+  </si>
+  <si>
+    <t>T456 CCA</t>
+  </si>
+  <si>
+    <t>Ilacouze jumanne</t>
+  </si>
+  <si>
+    <t>Red</t>
+  </si>
+  <si>
+    <t>Heavy Passenger Vehicle</t>
+  </si>
+  <si>
+    <t>FB150733330</t>
+  </si>
+  <si>
+    <t>T657 BCA</t>
+  </si>
+  <si>
+    <t>Domminic Mbwilo</t>
+  </si>
+  <si>
+    <t>Brown</t>
+  </si>
+  <si>
+    <t>FB150733331</t>
+  </si>
+  <si>
+    <t>T456 CVD</t>
+  </si>
+  <si>
+    <t>Ahura Mwakaleli</t>
+  </si>
+  <si>
+    <t>FB150733332</t>
+  </si>
+  <si>
+    <t>T786 DCA</t>
+  </si>
+  <si>
+    <t>Betty Mbwilo</t>
+  </si>
+  <si>
+    <t>FB150733333</t>
+  </si>
+  <si>
+    <t>T565 ABD</t>
+  </si>
+  <si>
+    <t>Sunday Morabu</t>
+  </si>
+  <si>
+    <t>FB150733334</t>
+  </si>
+  <si>
+    <t>T753 CSD</t>
+  </si>
+  <si>
+    <t>Analisah Sunday</t>
+  </si>
+  <si>
+    <t>FB150733335</t>
+  </si>
+  <si>
+    <t>T854 CDA</t>
+  </si>
+  <si>
+    <t>Kliwani Abdalah</t>
+  </si>
+  <si>
+    <t>FB150733336</t>
   </si>
 </sst>
 </file>
@@ -147,11 +306,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -170,6 +330,12 @@
     </font>
     <font>
       <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -217,7 +383,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -227,6 +393,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -247,10 +421,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:3"/>
+  <dimension ref="1:16"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="P1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="W1" activeCellId="0" sqref="W1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="W16" activeCellId="0" sqref="W16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -391,7 +565,7 @@
         <v>31</v>
       </c>
       <c r="M2" s="1" t="n">
-        <v>2000</v>
+        <v>2012</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>32</v>
@@ -429,7 +603,7 @@
         <v>35</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>65356</v>
+        <v>6737</v>
       </c>
       <c r="C3" s="1" t="n">
         <v>56436436</v>
@@ -438,16 +612,16 @@
         <v>36</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I3" s="1" t="n">
         <v>4335</v>
@@ -456,7 +630,7 @@
         <v>29</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>31</v>
@@ -468,7 +642,7 @@
         <v>32</v>
       </c>
       <c r="O3" s="1" t="n">
-        <v>56536536</v>
+        <v>56536537</v>
       </c>
       <c r="P3" s="1" t="n">
         <v>1190</v>
@@ -493,6 +667,929 @@
       </c>
       <c r="W3" s="1" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>764764576</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>76457647</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I4" s="1" t="n">
+        <v>453563</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="M4" s="1" t="n">
+        <v>2012</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="O4" s="1" t="n">
+        <v>56536538</v>
+      </c>
+      <c r="P4" s="1" t="n">
+        <v>1190</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="R4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="S4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="T4" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="U4" s="1" t="n">
+        <v>434</v>
+      </c>
+      <c r="V4" s="1" t="n">
+        <v>1110</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>76456</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>476547647</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" s="1" t="n">
+        <v>4335</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M5" s="1" t="n">
+        <v>2013</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O5" s="1" t="n">
+        <v>56536539</v>
+      </c>
+      <c r="P5" s="1" t="n">
+        <v>1190</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R5" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="S5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="T5" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="U5" s="1" t="n">
+        <v>434</v>
+      </c>
+      <c r="V5" s="1" t="n">
+        <v>1110</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>6464</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>4766574576</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6" s="1" t="n">
+        <v>243554</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="M6" s="1" t="n">
+        <v>2011</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="O6" s="1" t="n">
+        <v>56536540</v>
+      </c>
+      <c r="P6" s="1" t="n">
+        <v>1190</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="S6" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="T6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="U6" s="1" t="n">
+        <v>434</v>
+      </c>
+      <c r="V6" s="1" t="n">
+        <v>1110</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>465474654764</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>476446</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7" s="1" t="n">
+        <v>43254325</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M7" s="1" t="n">
+        <v>2011</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="O7" s="1" t="n">
+        <v>56536541</v>
+      </c>
+      <c r="P7" s="1" t="n">
+        <v>1190</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="R7" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="S7" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="T7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="U7" s="1" t="n">
+        <v>434</v>
+      </c>
+      <c r="V7" s="1" t="n">
+        <v>1110</v>
+      </c>
+      <c r="W7" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>765467476</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>6464764647</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I8" s="1" t="n">
+        <v>43535</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M8" s="1" t="n">
+        <v>2012</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="O8" s="1" t="n">
+        <v>56536542</v>
+      </c>
+      <c r="P8" s="1" t="n">
+        <v>1190</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R8" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="S8" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="T8" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="U8" s="1" t="n">
+        <v>434</v>
+      </c>
+      <c r="V8" s="1" t="n">
+        <v>1110</v>
+      </c>
+      <c r="W8" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>47646</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>476547645754</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I9" s="1" t="n">
+        <v>54365463</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="M9" s="1" t="n">
+        <v>2010</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="O9" s="1" t="n">
+        <v>56536543</v>
+      </c>
+      <c r="P9" s="1" t="n">
+        <v>1190</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R9" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="S9" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="T9" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="U9" s="1" t="n">
+        <v>434</v>
+      </c>
+      <c r="V9" s="1" t="n">
+        <v>1110</v>
+      </c>
+      <c r="W9" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>764</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>7646546547</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I10" s="1" t="n">
+        <v>654365</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="M10" s="1" t="n">
+        <v>2009</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="O10" s="1" t="n">
+        <v>56536544</v>
+      </c>
+      <c r="P10" s="1" t="n">
+        <v>1190</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R10" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="S10" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="T10" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="U10" s="1" t="n">
+        <v>434</v>
+      </c>
+      <c r="V10" s="1" t="n">
+        <v>1110</v>
+      </c>
+      <c r="W10" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>546546</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>6465476547</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I11" s="1" t="n">
+        <v>543654</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M11" s="1" t="n">
+        <v>2009</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="O11" s="1" t="n">
+        <v>56536545</v>
+      </c>
+      <c r="P11" s="1" t="n">
+        <v>1190</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="R11" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="S11" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="T11" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="U11" s="1" t="n">
+        <v>434</v>
+      </c>
+      <c r="V11" s="1" t="n">
+        <v>1110</v>
+      </c>
+      <c r="W11" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>547</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>465765465</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I12" s="1" t="n">
+        <v>54654</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="M12" s="1" t="n">
+        <v>2009</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="O12" s="1" t="n">
+        <v>56536546</v>
+      </c>
+      <c r="P12" s="1" t="n">
+        <v>1190</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R12" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="S12" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="T12" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="U12" s="1" t="n">
+        <v>434</v>
+      </c>
+      <c r="V12" s="1" t="n">
+        <v>1110</v>
+      </c>
+      <c r="W12" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>657454</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>65746546</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I13" s="1" t="n">
+        <v>43653</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M13" s="1" t="n">
+        <v>2010</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="O13" s="1" t="n">
+        <v>56536547</v>
+      </c>
+      <c r="P13" s="1" t="n">
+        <v>1190</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="R13" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="S13" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="T13" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="U13" s="1" t="n">
+        <v>434</v>
+      </c>
+      <c r="V13" s="1" t="n">
+        <v>1110</v>
+      </c>
+      <c r="W13" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>744545</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>47654746</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I14" s="1" t="n">
+        <v>536546354</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="M14" s="1" t="n">
+        <v>2011</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="O14" s="1" t="n">
+        <v>56536548</v>
+      </c>
+      <c r="P14" s="1" t="n">
+        <v>1190</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R14" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="S14" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="T14" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="U14" s="1" t="n">
+        <v>434</v>
+      </c>
+      <c r="V14" s="1" t="n">
+        <v>1110</v>
+      </c>
+      <c r="W14" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>47565745</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>765456476</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I15" s="1" t="n">
+        <v>566354</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="M15" s="1" t="n">
+        <v>2009</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="O15" s="1" t="n">
+        <v>56536549</v>
+      </c>
+      <c r="P15" s="1" t="n">
+        <v>1190</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R15" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="S15" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="T15" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="U15" s="1" t="n">
+        <v>434</v>
+      </c>
+      <c r="V15" s="1" t="n">
+        <v>1110</v>
+      </c>
+      <c r="W15" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>54654654</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>7647654747</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I16" s="1" t="n">
+        <v>54365436</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M16" s="1" t="n">
+        <v>2010</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="O16" s="1" t="n">
+        <v>56536550</v>
+      </c>
+      <c r="P16" s="1" t="n">
+        <v>1190</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R16" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="S16" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="T16" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="U16" s="1" t="n">
+        <v>434</v>
+      </c>
+      <c r="V16" s="1" t="n">
+        <v>1110</v>
+      </c>
+      <c r="W16" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
